--- a/grupos/missao-integrador/materiais/cronograma_integrador.xlsx
+++ b/grupos/missao-integrador/materiais/cronograma_integrador.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\projetoIntegrador\ecosystem\missao-integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANDERSON\Desktop\teste\ecosystem\grupos\missao-integrador\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Item</t>
   </si>
@@ -143,23 +143,35 @@
     <t>(%) Total (800%)</t>
   </si>
   <si>
-    <t>CONCLUIDO</t>
-  </si>
-  <si>
-    <t>FASE FINAL</t>
-  </si>
-  <si>
-    <t>CRUD'S</t>
-  </si>
-  <si>
     <t>AGUARDANDO FINALIZAR ETAPAS ANTERIORES</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>EM ANDAMENTO</t>
+  </si>
+  <si>
+    <t>Robesio/Janderson/Leonardo/Maisa</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>Integrador</t>
+  </si>
+  <si>
+    <t>5 SEMANAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -205,11 +210,35 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -244,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -455,39 +484,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,63 +559,15 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,31 +582,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,10 +1064,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -972,9 +1076,10 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
@@ -982,535 +1087,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="43" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="53" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="43" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="53" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="27" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="56" t="s">
+      <c r="N6" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="14" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="15">
         <v>2</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="15">
         <v>3</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="15">
         <v>4</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="15">
         <v>1</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="49"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="16">
+      <c r="F8" s="35"/>
+      <c r="G8" s="39">
         <v>44228</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="39">
         <v>44228</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="24">
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="48">
         <v>1</v>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>39</v>
+      <c r="O8" s="52" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="29">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="16">
+      <c r="F9" s="35"/>
+      <c r="G9" s="39">
         <v>44228</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="39">
         <v>44230</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="24">
+      <c r="I9" s="12"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="48">
         <v>1</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2">
+      <c r="O9" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="29">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="5">
+      <c r="F10" s="35"/>
+      <c r="G10" s="63">
         <v>44256</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="63">
         <v>44246</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="24">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="48">
         <v>1</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>39</v>
+      <c r="O10" s="52" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="29">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="5">
+      <c r="F11" s="35"/>
+      <c r="G11" s="63">
         <v>44256</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="63">
         <v>44246</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="O11" s="23" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="48">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2">
+    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="29">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="5">
+      <c r="F12" s="35"/>
+      <c r="G12" s="63">
         <v>44249</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="63">
         <v>44253</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="48">
+        <v>1</v>
+      </c>
+      <c r="O12" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="29">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="5">
+      <c r="F13" s="58"/>
+      <c r="G13" s="63">
         <v>44249</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="63">
         <v>44253</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="24">
-        <v>0</v>
-      </c>
-      <c r="O13" s="23" t="s">
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="48">
+        <v>1</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="29">
+        <v>7</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="59" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="16">
+      <c r="F14" s="60"/>
+      <c r="G14" s="39">
         <v>44256</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="39">
         <v>44259</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="24">
+      <c r="L14" s="13"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="30">
+        <v>8</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="40">
+        <v>44260</v>
+      </c>
+      <c r="H15" s="40">
+        <v>44260</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="49">
         <v>0</v>
       </c>
-      <c r="O14" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="28">
-        <v>8</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32">
-        <v>44260</v>
-      </c>
-      <c r="H15" s="32">
-        <v>44260</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36">
-        <v>0</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10">
+      <c r="O15" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="30">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="39">
+      <c r="C16" s="55"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="31">
+        <v>10</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="50">
         <f>SUM(N8:N15)</f>
-        <v>4.25</v>
-      </c>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="20" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+        <v>6.85</v>
+      </c>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
